--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2022.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE55C49-BF73-4206-8439-B3E025FB27DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D1B70-D3B9-47C1-9325-C5DC24456DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="16575" windowHeight="15585" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>CSE2025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,10 +370,6 @@
   </si>
   <si>
     <t>지구환경과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학문개론 4택1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +510,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,22 +846,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -874,7 +873,7 @@
         <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -890,7 +889,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G2">
@@ -922,22 +921,22 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -952,7 +951,7 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -967,7 +966,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -982,7 +981,7 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -997,7 +996,7 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1012,7 +1011,7 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1027,7 +1026,7 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1042,7 +1041,7 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1057,7 +1056,7 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1072,7 +1071,7 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1089,7 +1088,7 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1104,7 +1103,7 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1117,9 +1116,9 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1134,7 +1133,7 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1149,22 +1148,22 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1179,7 +1178,7 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1196,7 +1195,7 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1211,7 +1210,7 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1226,8 +1225,8 @@
       <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>95</v>
+      <c r="E23" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1243,7 +1242,7 @@
       <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1258,7 +1257,7 @@
       <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1273,7 +1272,7 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1290,7 +1289,7 @@
       <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1305,7 +1304,7 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1320,7 +1319,7 @@
       <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1337,7 +1336,7 @@
       <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1352,7 +1351,7 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1367,7 +1366,7 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1382,7 +1381,7 @@
       <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1397,7 +1396,7 @@
       <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1446,13 +1445,13 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1482,9 +1481,7 @@
       <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1532,10 +1529,9 @@
       <c r="E43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E40:E43"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E29:E34"/>
     <mergeCell ref="E20:E22"/>

--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2022.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D1B70-D3B9-47C1-9325-C5DC24456DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBE3B6-00F3-4788-9775-ABCD95012BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="8715" yWindow="1530" windowWidth="15570" windowHeight="11640" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
   <si>
     <t>CSE2025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리더십 3택1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본소양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학문실험 6택1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본소양3택3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>산업수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +412,17 @@
   </si>
   <si>
     <t>RGC1074</t>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>택1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -501,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -846,34 +842,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -889,8 +885,8 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G2">
         <v>84</v>
@@ -921,22 +917,26 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -951,7 +951,9 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -966,7 +968,9 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -981,7 +985,9 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -996,7 +1002,9 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1011,7 +1019,9 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1026,7 +1036,9 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1041,7 +1053,9 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1056,7 +1070,9 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1071,8 +1087,8 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>69</v>
+      <c r="E13" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1088,7 +1104,9 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1103,7 +1121,9 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1116,9 +1136,11 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1133,7 +1155,9 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1148,22 +1172,26 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1178,8 +1206,8 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1223,9 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1210,333 +1240,345 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>48</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>69</v>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E13:E19"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
